--- a/c_knowlage.xlsx
+++ b/c_knowlage.xlsx
@@ -3042,7 +3042,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="28.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="6" t="s">
         <v>98</v>
       </c>
@@ -3086,7 +3086,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="28.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="6" t="s">
         <v>98</v>
       </c>
@@ -3130,7 +3130,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="28.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="6" t="s">
         <v>98</v>
       </c>
@@ -3174,7 +3174,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="28.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="6" t="s">
         <v>98</v>
       </c>
@@ -3218,7 +3218,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="28.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="6" t="s">
         <v>98</v>
       </c>
